--- a/bin/Debug/netcoreapp3.1/RT961-DRWC.xlsx
+++ b/bin/Debug/netcoreapp3.1/RT961-DRWC.xlsx
@@ -35,7 +35,7 @@
     <t>Serial Number</t>
   </si>
   <si>
-    <t>2000816934</t>
+    <t>2000816936</t>
   </si>
   <si>
     <t>Hybrid S/N</t>
@@ -95,13 +95,13 @@
     <t>Battery level</t>
   </si>
   <si>
-    <t>80%</t>
+    <t>100%</t>
   </si>
   <si>
     <t>Final Test Date</t>
   </si>
   <si>
-    <t>2023-05-23 17:18:38</t>
+    <t>2022-08-01 12:45:54</t>
   </si>
   <si>
     <t>Test Program</t>
